--- a/Supplementary Table 5.xlsx
+++ b/Supplementary Table 5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldoa\OneDrive\Desktop\Prack ISME docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldoa\OneDrive\Documents\GitHub\wyeomyia-niche-construction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D52926D-3686-4563-BC63-3E5795CE1E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4ED81B-E90A-4EC7-BF1E-4BF0B23C1E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{248D8A4C-CC35-44DF-A1A9-6F1CEB5981E9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
   <si>
     <t>Comparison</t>
   </si>
@@ -53,6 +53,39 @@
   </si>
   <si>
     <t>Overall (F)</t>
+  </si>
+  <si>
+    <t>48-hr comparison</t>
+  </si>
+  <si>
+    <t>Harvest comparison</t>
+  </si>
+  <si>
+    <t>Cross-timepoint comparison</t>
+  </si>
+  <si>
+    <t>Larval comparison</t>
+  </si>
+  <si>
+    <t>Larvae vs start comparison</t>
+  </si>
+  <si>
+    <t>Larvae vs harvest comparison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.001 ***</t>
+  </si>
+  <si>
+    <t>0.001 ***</t>
+  </si>
+  <si>
+    <t>* p &lt; 0.05, ** p &lt; 0.01, *** p &lt; 0.001</t>
+  </si>
+  <si>
+    <t>0.028 *</t>
+  </si>
+  <si>
+    <t>0.029 *</t>
   </si>
   <si>
     <r>
@@ -77,11 +110,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = 12.85</t>
+      <t xml:space="preserve"> = 13.056</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt; 0.001 **</t>
   </si>
   <si>
     <r>
@@ -106,66 +136,45 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = 16.27</t>
+      <t xml:space="preserve"> = 15.716</t>
     </r>
   </si>
   <si>
-    <t>&lt; 0.001 **</t>
-  </si>
-  <si>
-    <t>48-hr comparison</t>
-  </si>
-  <si>
-    <t>Rearing water L0 vs L2</t>
-  </si>
-  <si>
-    <t>Rearing water L0 vs L10</t>
-  </si>
-  <si>
-    <t>Rearing water L2 vs L10</t>
-  </si>
-  <si>
-    <t>Harvest comparison</t>
-  </si>
-  <si>
-    <t>&lt; 0.03 *</t>
-  </si>
-  <si>
-    <t>Cross-timepoint comparison</t>
-  </si>
-  <si>
-    <t>Rearing water L0</t>
-  </si>
-  <si>
-    <t>Rearing water L2</t>
-  </si>
-  <si>
-    <t>Rearing water L10</t>
-  </si>
-  <si>
-    <t>Larval comparison</t>
-  </si>
-  <si>
-    <t>Larvae-associated L2 vs L10</t>
-  </si>
-  <si>
-    <t>Larvae vs start comparison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Larvae-associated vs rearing water L2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Larvae-associated vs rearing water L10 </t>
-  </si>
-  <si>
-    <t>Larvae vs harvest comparison</t>
+    <t>Rearing water Uncolonized</t>
+  </si>
+  <si>
+    <t>Rearing water Uncolonized vs Field</t>
+  </si>
+  <si>
+    <t>Rearing water Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larvae-associated vs rearing water Field </t>
+  </si>
+  <si>
+    <t>Rearing water Uncolonized vs High</t>
+  </si>
+  <si>
+    <t>Rearing water Field vs High</t>
+  </si>
+  <si>
+    <t>Rearing water High</t>
+  </si>
+  <si>
+    <t>Larvae-associated Field vs High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larvae-associated vs rearing water High </t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +192,23 @@
     </font>
     <font>
       <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -210,11 +236,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -531,340 +570,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37B1D70-D665-424F-9464-F24D82E475EE}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.86164707843005095</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.68688750823559896</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.79231212621409697</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.0051453588108701</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.67760086047644097</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-0.35503933032729501</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2.8500944050361801</v>
-      </c>
-      <c r="C9">
-        <v>0.06</v>
-      </c>
-      <c r="D9" s="2">
-        <v>-0.67801316803429001</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2">
-        <v>18.322002486245001</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3">
+        <v>27.74</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2">
-        <v>-0.98065665968754101</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10.283283565639501</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.237635644270596</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+      <c r="D11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3">
+        <v>15.36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3">
+        <v>189.18600000000001</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="3">
+        <v>7.0084407799700497</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2">
-        <v>95.265124643784006</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="2">
-        <v>7.0084407799700497</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2">
-        <v>85.856940237039296</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="2">
-        <v>6.4757324683694302</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="2">
-        <v>69.112620346786798</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="2">
-        <v>6.4368011186591598</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="D16" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B16" s="3">
+        <v>139.327</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="3">
+        <v>6.4757324683694302</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="2">
-        <v>6.1784837414907301</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3">
+        <v>98.99</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="2">
-        <v>-2.3297177312487398</v>
-      </c>
-      <c r="E17">
-        <v>0.78300000000000003</v>
+      <c r="D17" s="3">
+        <v>6.4368011186591598</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3">
+        <v>10.727</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2">
-        <v>82.864677337569503</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B23" s="3">
+        <v>136.58000000000001</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D23" s="3">
         <v>3.5514655165142699</v>
       </c>
-      <c r="E19">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="2">
-        <v>101.114193452308</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="E23" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="3">
+        <v>158.36000000000001</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="2">
-        <v>0.96789481904914998</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="2">
-        <v>21.266601976712099</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3">
+        <v>30.23</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="2">
-        <v>-1.7271890055177399</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="2">
-        <v>17.421355596509802</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D28" s="3">
         <v>-4.7123010242294203</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="E28" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Supplementary Table 5.xlsx
+++ b/Supplementary Table 5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldoa\OneDrive\Documents\GitHub\wyeomyia-niche-construction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4ED81B-E90A-4EC7-BF1E-4BF0B23C1E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0DF65D-5BAF-4270-9561-83732CCE6ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{248D8A4C-CC35-44DF-A1A9-6F1CEB5981E9}"/>
   </bookViews>
@@ -88,27 +88,55 @@
     <t>0.029 *</t>
   </si>
   <si>
+    <t>Rearing water Uncolonized</t>
+  </si>
+  <si>
+    <t>Rearing water Uncolonized vs Field</t>
+  </si>
+  <si>
+    <t>Rearing water Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larvae-associated vs rearing water Field </t>
+  </si>
+  <si>
+    <t>Rearing water Uncolonized vs High</t>
+  </si>
+  <si>
+    <t>Rearing water Field vs High</t>
+  </si>
+  <si>
+    <t>Rearing water High</t>
+  </si>
+  <si>
+    <t>Larvae-associated Field vs High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larvae-associated vs rearing water High </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">  F</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Aptos"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>7,143</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Aptos"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> = 13.056</t>
     </r>
@@ -120,61 +148,29 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Aptos"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t>7,143</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="Aptos"/>
         <family val="2"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> = 15.716</t>
     </r>
-  </si>
-  <si>
-    <t>Rearing water Uncolonized</t>
-  </si>
-  <si>
-    <t>Rearing water Uncolonized vs Field</t>
-  </si>
-  <si>
-    <t>Rearing water Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Larvae-associated vs rearing water Field </t>
-  </si>
-  <si>
-    <t>Rearing water Uncolonized vs High</t>
-  </si>
-  <si>
-    <t>Rearing water Field vs High</t>
-  </si>
-  <si>
-    <t>Rearing water High</t>
-  </si>
-  <si>
-    <t>Larvae-associated Field vs High</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Larvae-associated vs rearing water High </t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,37 +179,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="subscript"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,22 +236,22 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -573,7 +571,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,400 +580,400 @@
     <col min="2" max="5" width="31.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="1" t="s">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6">
         <v>27.74</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="D11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6">
         <v>15.36</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="6">
+        <v>189.18600000000001</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="6">
+        <v>7.0084407799700497</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="3">
-        <v>189.18600000000001</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B16" s="6">
+        <v>139.327</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="3">
-        <v>7.0084407799700497</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="D16" s="6">
+        <v>6.4757324683694302</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="3">
-        <v>139.327</v>
-      </c>
-      <c r="C16" s="3" t="s">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="6">
+        <v>98.99</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3">
-        <v>6.4757324683694302</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="D17" s="6">
+        <v>6.4368011186591598</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="3">
-        <v>98.99</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="3">
-        <v>6.4368011186591598</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="3">
+      <c r="B19" s="6"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="6">
         <v>10.727</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3">
+      <c r="B22" s="6"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6">
         <v>136.58000000000001</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="6">
         <v>3.5514655165142699</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="3">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="6">
         <v>158.36000000000001</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="3">
+      <c r="B26" s="6"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="6">
         <v>30.23</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3">
+      <c r="D27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="6">
         <v>19.579999999999998</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="6">
         <v>-4.7123010242294203</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
